--- a/resources_load/VDI 4655 Typtag-Faktoren.xlsx
+++ b/resources_load/VDI 4655 Typtag-Faktoren.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trnsys17\Work\futureSuN\AP4\Referenz_Quartier_Neubau\Last\Typtage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nettelstroth\Documents\07 Python\weather\resources_load\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Faktoren" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="21">
   <si>
     <t>TRY</t>
   </si>
@@ -87,10 +87,7 @@
     <t>Faktoren für den Energiebedarf je Typtag für Ein- und Mehrfamilienhäuser in der Klimazonenregion TRY</t>
   </si>
   <si>
-    <t>Entnommen aus VDI_4655.pdf</t>
-  </si>
-  <si>
-    <t>Anmerkung: Bisher nur Klimazonen 1, 3, 4, 5 und 13 übernommen, da dies die waren, die ich benötigte</t>
+    <t>Entnommen aus VDI 4655:2008-05 – Referenzlastprofile von Ein- und Mehrfamilienhäusern</t>
   </si>
 </sst>
 </file>
@@ -146,7 +143,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,18 +153,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,6 +198,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -226,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -234,7 +243,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -251,61 +259,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -586,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -645,553 +680,548 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="42">
         <v>1.8613E-3</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="9">
         <v>2.6849999999999999E-3</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="9">
         <v>3.1327999999999998E-3</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="9">
         <v>2.5590999999999999E-3</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="9">
         <v>0</v>
       </c>
-      <c r="J2" s="36">
+      <c r="J2" s="9">
         <v>5.0225000000000001E-3</v>
       </c>
-      <c r="K2" s="44">
+      <c r="K2" s="9">
         <v>5.2687000000000003E-3</v>
       </c>
-      <c r="L2" s="36">
+      <c r="L2" s="9">
         <v>5.6739E-3</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="9">
         <v>4.4698000000000003E-3</v>
       </c>
-      <c r="N2" s="43"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="34">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="9">
         <v>-5.8847000000000001E-5</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="9">
         <v>1.8204E-6</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="9">
         <v>8.2711000000000001E-5</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="9">
         <v>1.5686000000000001E-4</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="9">
         <v>-1.3011000000000001E-4</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="9">
         <v>-7.0402999999999997E-5</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="9">
         <v>3.7463999999999998E-6</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="9">
         <v>6.5376999999999994E-5</v>
       </c>
-      <c r="L3" s="36">
+      <c r="L3" s="9">
         <v>1.0870999999999999E-4</v>
       </c>
-      <c r="M3" s="36">
+      <c r="M3" s="9">
         <v>2.1175E-4</v>
       </c>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="34">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="9">
         <v>-1.3009E-4</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="9">
         <v>-6.5571E-5</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="9">
         <v>3.1095999999999999E-4</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="9">
         <v>3.6392999999999999E-4</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="9">
         <v>-2.0808999999999999E-4</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="9">
         <v>1.4629000000000001E-4</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="9">
         <v>7.6953000000000007E-5</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="9">
         <v>2.6877E-5</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="9">
         <v>7.4912999999999998E-4</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="9">
         <v>4.0245E-4</v>
       </c>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="38">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="13">
         <v>1.8996E-3</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="13">
         <v>2.5273000000000001E-3</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="13">
         <v>2.1662999999999999E-3</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="13">
         <v>2.0590000000000001E-3</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="13">
         <v>3.7421999999999998E-4</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="13">
         <v>3.0229999999999998E-4</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="13">
         <v>5.9240999999999999E-3</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="13">
         <v>4.9979999999999998E-3</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="13">
         <v>5.7993999999999997E-3</v>
       </c>
-      <c r="M5" s="40">
+      <c r="M5" s="13">
         <v>4.0813000000000004E-3</v>
       </c>
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="38">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="13">
         <v>1.3679000000000001E-5</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="13">
         <v>3.6913999999999999E-6</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="13">
         <v>-1.3288000000000001E-5</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="13">
         <v>-1.3288000000000001E-5</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="13">
         <v>-3.8257000000000003E-5</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="13">
         <v>-4.0255E-5</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="13">
         <v>5.2632E-5</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="13">
         <v>1.9672000000000001E-5</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="13">
         <v>3.2656E-5</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="13">
         <v>6.9503999999999996E-7</v>
       </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="38">
+      <c r="A7" s="11">
         <v>1</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="13">
         <v>1.3822000000000001E-5</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="13">
         <v>4.8964000000000002E-6</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="13">
         <v>4.8964000000000002E-6</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="13">
         <v>1.7790000000000001E-5</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="13">
         <v>-5.2627000000000003E-5</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="13">
         <v>-4.3701000000000001E-5</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="13">
         <v>2.9691000000000001E-5</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="13">
         <v>2.8699000000000001E-5</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="13">
         <v>2.1756999999999999E-5</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="13">
         <v>1.5806000000000001E-5</v>
       </c>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="43">
+        <v>1.9136999999999999E-3</v>
+      </c>
+      <c r="E8" s="43">
+        <v>2.4797999999999999E-3</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2.6489999999999999E-3</v>
+      </c>
+      <c r="G8" s="43">
+        <v>2.6416999999999999E-3</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
+        <v>4.7553999999999999E-3</v>
+      </c>
+      <c r="K8" s="43">
+        <v>5.1503E-3</v>
+      </c>
+      <c r="L8" s="43">
+        <v>5.6220999999999997E-3</v>
+      </c>
+      <c r="M8" s="43">
+        <v>4.5183999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="15">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="43">
+        <v>-5.9991000000000002E-5</v>
+      </c>
+      <c r="E9" s="43">
+        <v>5.9546000000000001E-7</v>
+      </c>
+      <c r="F9" s="43">
+        <v>8.1377000000000004E-5</v>
+      </c>
+      <c r="G9" s="43">
+        <v>1.5542999999999999E-4</v>
+      </c>
+      <c r="H9" s="43">
+        <v>-1.3116000000000001E-4</v>
+      </c>
+      <c r="I9" s="43">
+        <v>-7.1531000000000003E-5</v>
+      </c>
+      <c r="J9" s="43">
+        <v>2.5187999999999999E-6</v>
+      </c>
+      <c r="K9" s="43">
+        <v>6.4066999999999995E-5</v>
+      </c>
+      <c r="L9" s="43">
+        <v>1.0734E-4</v>
+      </c>
+      <c r="M9" s="43">
+        <v>2.1023999999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="15">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="43">
+        <v>-1.3023000000000001E-4</v>
+      </c>
+      <c r="E10" s="43">
+        <v>-6.5717999999999997E-5</v>
+      </c>
+      <c r="F10" s="43">
+        <v>3.1074999999999999E-4</v>
+      </c>
+      <c r="G10" s="43">
+        <v>3.637E-4</v>
+      </c>
+      <c r="H10" s="43">
+        <v>-2.0822000000000001E-4</v>
+      </c>
+      <c r="I10" s="43">
+        <v>1.461E-4</v>
+      </c>
+      <c r="J10" s="43">
+        <v>7.6780999999999996E-5</v>
+      </c>
+      <c r="K10" s="43">
+        <v>2.6713999999999999E-5</v>
+      </c>
+      <c r="L10" s="43">
+        <v>7.4883999999999997E-4</v>
+      </c>
+      <c r="M10" s="43">
+        <v>4.0222000000000001E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1.9155000000000001E-3</v>
+      </c>
+      <c r="E11" s="21">
+        <v>2.3766E-3</v>
+      </c>
+      <c r="F11" s="21">
+        <v>1.9161E-3</v>
+      </c>
+      <c r="G11" s="21">
+        <v>2.0942999999999999E-3</v>
+      </c>
+      <c r="H11" s="21">
+        <v>3.0435E-4</v>
+      </c>
+      <c r="I11" s="21">
+        <v>3.3930000000000001E-4</v>
+      </c>
+      <c r="J11" s="21">
+        <v>5.6886999999999997E-3</v>
+      </c>
+      <c r="K11" s="21">
+        <v>4.9251E-3</v>
+      </c>
+      <c r="L11" s="21">
+        <v>5.7850000000000002E-3</v>
+      </c>
+      <c r="M11" s="21">
+        <v>4.1313000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>2</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="21">
+        <v>1.3523000000000001E-5</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3.5414999999999999E-6</v>
+      </c>
+      <c r="F12" s="21">
+        <v>-1.3427999999999999E-5</v>
+      </c>
+      <c r="G12" s="21">
+        <v>-1.3427999999999999E-5</v>
+      </c>
+      <c r="H12" s="21">
+        <v>-3.8381999999999999E-5</v>
+      </c>
+      <c r="I12" s="21">
+        <v>-4.0379000000000001E-5</v>
+      </c>
+      <c r="J12" s="21">
+        <v>5.2453000000000001E-5</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1.9513000000000001E-5</v>
+      </c>
+      <c r="L12" s="21">
+        <v>3.2489E-5</v>
+      </c>
+      <c r="M12" s="21">
+        <v>5.4695000000000001E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1.3447E-5</v>
+      </c>
+      <c r="E13" s="21">
+        <v>4.5340000000000001E-6</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4.5340000000000001E-6</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1.7408999999999999E-5</v>
+      </c>
+      <c r="H13" s="21">
+        <v>-5.2907E-5</v>
+      </c>
+      <c r="I13" s="21">
+        <v>-4.3993999999999999E-5</v>
+      </c>
+      <c r="J13" s="21">
+        <v>2.9292999999999999E-5</v>
+      </c>
+      <c r="K13" s="21">
+        <v>2.8303E-5</v>
+      </c>
+      <c r="L13" s="21">
+        <v>2.137E-5</v>
+      </c>
+      <c r="M13" s="21">
+        <v>1.5427999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="44">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B14" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D14" s="46">
         <v>1.7168999999999999E-3</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E14" s="46">
         <v>2.4087000000000002E-3</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F14" s="46">
         <v>2.4827E-3</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G14" s="46">
         <v>2.2563000000000001E-3</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H14" s="46">
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I14" s="46">
         <v>0</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J14" s="46">
         <v>5.0404999999999998E-3</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K14" s="46">
         <v>4.9661999999999996E-3</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L14" s="46">
         <v>5.6839999999999998E-3</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M14" s="46">
         <v>4.2526999999999999E-3</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="44">
         <v>3</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="14">
-        <v>-6.5052E-5</v>
-      </c>
-      <c r="E9" s="14">
-        <v>-4.8245000000000001E-6</v>
-      </c>
-      <c r="F9" s="14">
-        <v>7.5477999999999998E-5</v>
-      </c>
-      <c r="G9" s="14">
-        <v>1.4909E-4</v>
-      </c>
-      <c r="H9" s="14">
-        <v>-1.3579E-4</v>
-      </c>
-      <c r="I9" s="14">
-        <v>-7.6522999999999999E-5</v>
-      </c>
-      <c r="J9" s="14">
-        <v>-2.9125000000000001E-6</v>
-      </c>
-      <c r="K9" s="14">
-        <v>5.8270999999999998E-5</v>
-      </c>
-      <c r="L9" s="14">
-        <v>1.0129E-4</v>
-      </c>
-      <c r="M9" s="14">
-        <v>2.0358E-4</v>
-      </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>3</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-1.3632999999999999E-4</v>
-      </c>
-      <c r="E10" s="14">
-        <v>-7.2319999999999999E-5</v>
-      </c>
-      <c r="F10" s="14">
-        <v>3.0121E-4</v>
-      </c>
-      <c r="G10" s="14">
-        <v>3.5376E-4</v>
-      </c>
-      <c r="H10" s="14">
-        <v>-2.1371000000000001E-4</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1.3784999999999999E-4</v>
-      </c>
-      <c r="J10" s="14">
-        <v>6.9068999999999999E-5</v>
-      </c>
-      <c r="K10" s="14">
-        <v>1.9392E-5</v>
-      </c>
-      <c r="L10" s="14">
-        <v>7.3589E-4</v>
-      </c>
-      <c r="M10" s="14">
-        <v>3.9197E-4</v>
-      </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1.7589000000000001E-3</v>
-      </c>
-      <c r="E11" s="18">
-        <v>2.2945999999999999E-3</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.8071999999999999E-3</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1.8481000000000001E-3</v>
-      </c>
-      <c r="H11" s="18">
-        <v>3.3712E-4</v>
-      </c>
-      <c r="I11" s="18">
-        <v>2.7086999999999999E-4</v>
-      </c>
-      <c r="J11" s="18">
-        <v>5.8913999999999998E-3</v>
-      </c>
-      <c r="K11" s="18">
-        <v>4.7108000000000002E-3</v>
-      </c>
-      <c r="L11" s="18">
-        <v>5.7553999999999999E-3</v>
-      </c>
-      <c r="M11" s="18">
-        <v>3.8752000000000001E-3</v>
-      </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1.2016E-5</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2.091E-6</v>
-      </c>
-      <c r="F12" s="18">
-        <v>-1.4781E-5</v>
-      </c>
-      <c r="G12" s="18">
-        <v>-1.4781E-5</v>
-      </c>
-      <c r="H12" s="18">
-        <v>-3.9592000000000003E-5</v>
-      </c>
-      <c r="I12" s="18">
-        <v>-4.1576999999999999E-5</v>
-      </c>
-      <c r="J12" s="18">
-        <v>5.0720999999999998E-5</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1.7969999999999999E-5</v>
-      </c>
-      <c r="L12" s="18">
-        <v>3.0871999999999999E-5</v>
-      </c>
-      <c r="M12" s="18">
-        <v>-8.8640999999999995E-7</v>
-      </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>3</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1.17E-5</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2.8462E-6</v>
-      </c>
-      <c r="F13" s="18">
-        <v>2.8462E-6</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1.5634999999999999E-5</v>
-      </c>
-      <c r="H13" s="18">
-        <v>-5.4212999999999997E-5</v>
-      </c>
-      <c r="I13" s="18">
-        <v>-4.5358999999999997E-5</v>
-      </c>
-      <c r="J13" s="20">
-        <v>2.7441E-5</v>
-      </c>
-      <c r="K13" s="18">
-        <v>2.6457000000000001E-5</v>
-      </c>
-      <c r="L13" s="18">
-        <v>1.9570000000000001E-5</v>
-      </c>
-      <c r="M13" s="18">
-        <v>1.3668E-5</v>
-      </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="51">
-        <v>4</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="53">
-        <v>1.8691000000000001E-3</v>
-      </c>
-      <c r="E14" s="53">
-        <v>2.2561E-3</v>
-      </c>
-      <c r="F14" s="53">
-        <v>2.5473000000000002E-3</v>
-      </c>
-      <c r="G14" s="53">
-        <v>2.5460999999999999E-3</v>
-      </c>
-      <c r="H14" s="53">
-        <v>0</v>
-      </c>
-      <c r="I14" s="53">
-        <v>0</v>
-      </c>
-      <c r="J14" s="53">
-        <v>5.1858E-3</v>
-      </c>
-      <c r="K14" s="53">
-        <v>5.2036000000000001E-3</v>
-      </c>
-      <c r="L14" s="53">
-        <v>5.2535999999999998E-3</v>
-      </c>
-      <c r="M14" s="53">
-        <v>4.6985999999999998E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="51">
-        <v>4</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>9</v>
@@ -1199,813 +1229,3169 @@
       <c r="C15" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="53">
-        <v>-5.9466000000000003E-5</v>
-      </c>
-      <c r="E15" s="53">
-        <v>1.1573999999999999E-6</v>
-      </c>
-      <c r="F15" s="53">
-        <v>8.1989000000000004E-5</v>
-      </c>
-      <c r="G15" s="53">
-        <v>1.5608000000000001E-4</v>
-      </c>
-      <c r="H15" s="53">
-        <v>-1.3067999999999999E-4</v>
-      </c>
-      <c r="I15" s="53">
-        <v>-7.1013999999999995E-5</v>
-      </c>
-      <c r="J15" s="53">
-        <v>3.0819000000000001E-6</v>
-      </c>
-      <c r="K15" s="53">
-        <v>6.4667999999999998E-5</v>
-      </c>
-      <c r="L15" s="53">
-        <v>1.0797E-4</v>
-      </c>
-      <c r="M15" s="53">
-        <v>2.1092999999999999E-4</v>
-      </c>
+      <c r="D15" s="46">
+        <v>-6.5052E-5</v>
+      </c>
+      <c r="E15" s="46">
+        <v>-4.8245000000000001E-6</v>
+      </c>
+      <c r="F15" s="46">
+        <v>7.5477999999999998E-5</v>
+      </c>
+      <c r="G15" s="46">
+        <v>1.4909E-4</v>
+      </c>
+      <c r="H15" s="46">
+        <v>-1.3579E-4</v>
+      </c>
+      <c r="I15" s="46">
+        <v>-7.6522999999999999E-5</v>
+      </c>
+      <c r="J15" s="46">
+        <v>-2.9125000000000001E-6</v>
+      </c>
+      <c r="K15" s="46">
+        <v>5.8270999999999998E-5</v>
+      </c>
+      <c r="L15" s="46">
+        <v>1.0129E-4</v>
+      </c>
+      <c r="M15" s="46">
+        <v>2.0358E-4</v>
+      </c>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="51">
-        <v>4</v>
+      <c r="A16" s="44">
+        <v>3</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="53">
-        <v>-1.3250999999999999E-4</v>
-      </c>
-      <c r="E16" s="53">
-        <v>-6.8189999999999996E-5</v>
-      </c>
-      <c r="F16" s="53">
-        <v>3.0718E-4</v>
-      </c>
-      <c r="G16" s="53">
-        <v>3.5997999999999998E-4</v>
-      </c>
-      <c r="H16" s="53">
-        <v>-2.1027E-4</v>
-      </c>
-      <c r="I16" s="53">
-        <v>1.4301E-4</v>
-      </c>
-      <c r="J16" s="53">
-        <v>7.3893000000000006E-5</v>
-      </c>
-      <c r="K16" s="53">
-        <v>2.3972E-5</v>
-      </c>
-      <c r="L16" s="53">
-        <v>7.4399000000000004E-4</v>
-      </c>
-      <c r="M16" s="53">
-        <v>3.9837999999999999E-4</v>
-      </c>
+      <c r="D16" s="46">
+        <v>-1.3632999999999999E-4</v>
+      </c>
+      <c r="E16" s="46">
+        <v>-7.2319999999999999E-5</v>
+      </c>
+      <c r="F16" s="46">
+        <v>3.0121E-4</v>
+      </c>
+      <c r="G16" s="46">
+        <v>3.5376E-4</v>
+      </c>
+      <c r="H16" s="46">
+        <v>-2.1371000000000001E-4</v>
+      </c>
+      <c r="I16" s="46">
+        <v>1.3784999999999999E-4</v>
+      </c>
+      <c r="J16" s="46">
+        <v>6.9068999999999999E-5</v>
+      </c>
+      <c r="K16" s="46">
+        <v>1.9392E-5</v>
+      </c>
+      <c r="L16" s="46">
+        <v>7.3589E-4</v>
+      </c>
+      <c r="M16" s="46">
+        <v>3.9197E-4</v>
+      </c>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="52">
-        <v>4</v>
-      </c>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="48">
+        <v>3</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="54">
-        <v>1.8686E-3</v>
-      </c>
-      <c r="E17" s="54">
-        <v>2.2058999999999998E-3</v>
-      </c>
-      <c r="F17" s="54">
-        <v>1.8495E-3</v>
-      </c>
-      <c r="G17" s="54">
-        <v>2.0238000000000001E-3</v>
-      </c>
-      <c r="H17" s="54">
-        <v>2.3195E-4</v>
-      </c>
-      <c r="I17" s="54">
-        <v>2.3258999999999999E-4</v>
-      </c>
-      <c r="J17" s="54">
-        <v>6.0958000000000002E-3</v>
-      </c>
-      <c r="K17" s="54">
-        <v>4.9418999999999999E-3</v>
-      </c>
-      <c r="L17" s="54">
-        <v>5.4377000000000002E-3</v>
-      </c>
-      <c r="M17" s="54">
-        <v>4.2448E-3</v>
-      </c>
+      <c r="D17" s="50">
+        <v>1.7589000000000001E-3</v>
+      </c>
+      <c r="E17" s="50">
+        <v>2.2945999999999999E-3</v>
+      </c>
+      <c r="F17" s="50">
+        <v>1.8071999999999999E-3</v>
+      </c>
+      <c r="G17" s="50">
+        <v>1.8481000000000001E-3</v>
+      </c>
+      <c r="H17" s="50">
+        <v>3.3712E-4</v>
+      </c>
+      <c r="I17" s="50">
+        <v>2.7086999999999999E-4</v>
+      </c>
+      <c r="J17" s="50">
+        <v>5.8913999999999998E-3</v>
+      </c>
+      <c r="K17" s="50">
+        <v>4.7108000000000002E-3</v>
+      </c>
+      <c r="L17" s="50">
+        <v>5.7553999999999999E-3</v>
+      </c>
+      <c r="M17" s="50">
+        <v>3.8752000000000001E-3</v>
+      </c>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="52">
-        <v>4</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="48">
+        <v>3</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="54">
-        <v>1.2867999999999999E-5</v>
-      </c>
-      <c r="E18" s="54">
-        <v>2.9106999999999999E-6</v>
-      </c>
-      <c r="F18" s="54">
-        <v>-1.4015999999999999E-5</v>
-      </c>
-      <c r="G18" s="54">
-        <v>-1.4015999999999999E-5</v>
-      </c>
-      <c r="H18" s="54">
-        <v>-3.8909000000000003E-5</v>
-      </c>
-      <c r="I18" s="54">
-        <v>-4.0899999999999998E-5</v>
-      </c>
-      <c r="J18" s="54">
-        <v>5.1700000000000003E-5</v>
-      </c>
-      <c r="K18" s="54">
-        <v>1.8842E-5</v>
-      </c>
-      <c r="L18" s="54">
-        <v>3.1785999999999997E-5</v>
-      </c>
-      <c r="M18" s="54">
-        <v>-7.6382000000000002E-8</v>
-      </c>
+      <c r="D18" s="50">
+        <v>1.2016E-5</v>
+      </c>
+      <c r="E18" s="50">
+        <v>2.091E-6</v>
+      </c>
+      <c r="F18" s="50">
+        <v>-1.4781E-5</v>
+      </c>
+      <c r="G18" s="50">
+        <v>-1.4781E-5</v>
+      </c>
+      <c r="H18" s="50">
+        <v>-3.9592000000000003E-5</v>
+      </c>
+      <c r="I18" s="50">
+        <v>-4.1576999999999999E-5</v>
+      </c>
+      <c r="J18" s="50">
+        <v>5.0720999999999998E-5</v>
+      </c>
+      <c r="K18" s="50">
+        <v>1.7969999999999999E-5</v>
+      </c>
+      <c r="L18" s="50">
+        <v>3.0871999999999999E-5</v>
+      </c>
+      <c r="M18" s="50">
+        <v>-8.8640999999999995E-7</v>
+      </c>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="52">
-        <v>4</v>
-      </c>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="48">
+        <v>3</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="50">
+        <v>1.17E-5</v>
+      </c>
+      <c r="E19" s="50">
+        <v>2.8462E-6</v>
+      </c>
+      <c r="F19" s="50">
+        <v>2.8462E-6</v>
+      </c>
+      <c r="G19" s="50">
+        <v>1.5634999999999999E-5</v>
+      </c>
+      <c r="H19" s="50">
+        <v>-5.4212999999999997E-5</v>
+      </c>
+      <c r="I19" s="50">
+        <v>-4.5358999999999997E-5</v>
+      </c>
+      <c r="J19" s="52">
+        <v>2.7441E-5</v>
+      </c>
+      <c r="K19" s="50">
+        <v>2.6457000000000001E-5</v>
+      </c>
+      <c r="L19" s="50">
+        <v>1.9570000000000001E-5</v>
+      </c>
+      <c r="M19" s="50">
+        <v>1.3668E-5</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="38">
+        <v>4</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="40">
+        <v>1.8691000000000001E-3</v>
+      </c>
+      <c r="E20" s="40">
+        <v>2.2561E-3</v>
+      </c>
+      <c r="F20" s="40">
+        <v>2.5473000000000002E-3</v>
+      </c>
+      <c r="G20" s="40">
+        <v>2.5460999999999999E-3</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <v>0</v>
+      </c>
+      <c r="J20" s="40">
+        <v>5.1858E-3</v>
+      </c>
+      <c r="K20" s="40">
+        <v>5.2036000000000001E-3</v>
+      </c>
+      <c r="L20" s="40">
+        <v>5.2535999999999998E-3</v>
+      </c>
+      <c r="M20" s="40">
+        <v>4.6985999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="38">
+        <v>4</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="40">
+        <v>-5.9466000000000003E-5</v>
+      </c>
+      <c r="E21" s="40">
+        <v>1.1573999999999999E-6</v>
+      </c>
+      <c r="F21" s="40">
+        <v>8.1989000000000004E-5</v>
+      </c>
+      <c r="G21" s="40">
+        <v>1.5608000000000001E-4</v>
+      </c>
+      <c r="H21" s="40">
+        <v>-1.3067999999999999E-4</v>
+      </c>
+      <c r="I21" s="40">
+        <v>-7.1013999999999995E-5</v>
+      </c>
+      <c r="J21" s="40">
+        <v>3.0819000000000001E-6</v>
+      </c>
+      <c r="K21" s="40">
+        <v>6.4667999999999998E-5</v>
+      </c>
+      <c r="L21" s="40">
+        <v>1.0797E-4</v>
+      </c>
+      <c r="M21" s="40">
+        <v>2.1092999999999999E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="38">
+        <v>4</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="40">
+        <v>-1.3250999999999999E-4</v>
+      </c>
+      <c r="E22" s="40">
+        <v>-6.8189999999999996E-5</v>
+      </c>
+      <c r="F22" s="40">
+        <v>3.0718E-4</v>
+      </c>
+      <c r="G22" s="40">
+        <v>3.5997999999999998E-4</v>
+      </c>
+      <c r="H22" s="40">
+        <v>-2.1027E-4</v>
+      </c>
+      <c r="I22" s="40">
+        <v>1.4301E-4</v>
+      </c>
+      <c r="J22" s="40">
+        <v>7.3893000000000006E-5</v>
+      </c>
+      <c r="K22" s="40">
+        <v>2.3972E-5</v>
+      </c>
+      <c r="L22" s="40">
+        <v>7.4399000000000004E-4</v>
+      </c>
+      <c r="M22" s="40">
+        <v>3.9837999999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="39">
+        <v>4</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="41">
+        <v>1.8686E-3</v>
+      </c>
+      <c r="E23" s="41">
+        <v>2.2058999999999998E-3</v>
+      </c>
+      <c r="F23" s="41">
+        <v>1.8495E-3</v>
+      </c>
+      <c r="G23" s="41">
+        <v>2.0238000000000001E-3</v>
+      </c>
+      <c r="H23" s="41">
+        <v>2.3195E-4</v>
+      </c>
+      <c r="I23" s="41">
+        <v>2.3258999999999999E-4</v>
+      </c>
+      <c r="J23" s="41">
+        <v>6.0958000000000002E-3</v>
+      </c>
+      <c r="K23" s="41">
+        <v>4.9418999999999999E-3</v>
+      </c>
+      <c r="L23" s="41">
+        <v>5.4377000000000002E-3</v>
+      </c>
+      <c r="M23" s="41">
+        <v>4.2448E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="39">
+        <v>4</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="41">
+        <v>1.2867999999999999E-5</v>
+      </c>
+      <c r="E24" s="41">
+        <v>2.9106999999999999E-6</v>
+      </c>
+      <c r="F24" s="41">
+        <v>-1.4015999999999999E-5</v>
+      </c>
+      <c r="G24" s="41">
+        <v>-1.4015999999999999E-5</v>
+      </c>
+      <c r="H24" s="41">
+        <v>-3.8909000000000003E-5</v>
+      </c>
+      <c r="I24" s="41">
+        <v>-4.0899999999999998E-5</v>
+      </c>
+      <c r="J24" s="41">
+        <v>5.1700000000000003E-5</v>
+      </c>
+      <c r="K24" s="41">
+        <v>1.8842E-5</v>
+      </c>
+      <c r="L24" s="41">
+        <v>3.1785999999999997E-5</v>
+      </c>
+      <c r="M24" s="41">
+        <v>-7.6382000000000002E-8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="39">
+        <v>4</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="41">
         <v>1.3284E-5</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E25" s="41">
         <v>4.3765999999999997E-6</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F25" s="41">
         <v>4.3765999999999997E-6</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G25" s="41">
         <v>1.7243000000000001E-5</v>
       </c>
-      <c r="H19" s="54">
+      <c r="H25" s="41">
         <v>-5.3029000000000003E-5</v>
       </c>
-      <c r="I19" s="54">
+      <c r="I25" s="41">
         <v>-4.4121E-5</v>
       </c>
-      <c r="J19" s="54">
+      <c r="J25" s="41">
         <v>2.9119999999999999E-5</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K25" s="41">
         <v>2.8130999999999999E-5</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L25" s="41">
         <v>2.1202000000000001E-5</v>
       </c>
-      <c r="M19" s="54">
+      <c r="M25" s="41">
         <v>1.5264000000000002E-5</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="54">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="B26" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D26" s="56">
         <v>1.6854999999999999E-3</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E26" s="56">
         <v>2.6846999999999999E-3</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F26" s="56">
         <v>1.853E-3</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G26" s="56">
         <v>2.7469999999999999E-3</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H26" s="56">
         <v>0</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I26" s="56">
         <v>0</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J26" s="56">
         <v>5.2113999999999997E-3</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K26" s="56">
         <v>5.3065999999999999E-3</v>
       </c>
-      <c r="L20" s="10">
+      <c r="L26" s="56">
         <v>5.1847999999999998E-3</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M26" s="56">
         <v>4.6804999999999998E-3</v>
       </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="54">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="B27" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D27" s="56">
         <v>-6.1968E-5</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E27" s="56">
         <v>-1.522E-6</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F27" s="56">
         <v>7.9072999999999993E-5</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G27" s="56">
         <v>1.5295E-4</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H27" s="56">
         <v>-1.3297E-4</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I27" s="56">
         <v>-7.3481999999999999E-5</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J27" s="56">
         <v>3.9692999999999999E-7</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K27" s="56">
         <v>6.1802000000000002E-5</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L27" s="56">
         <v>1.0498E-4</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M27" s="56">
         <v>2.0764000000000001E-4</v>
       </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="54">
         <v>5</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="B28" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D28" s="56">
         <v>-1.2579999999999999E-4</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E28" s="56">
         <v>-6.0921999999999997E-5</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F28" s="56">
         <v>3.1767999999999998E-4</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G28" s="56">
         <v>3.7093E-4</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H28" s="56">
         <v>-2.0422999999999999E-4</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I28" s="56">
         <v>1.5210000000000001E-4</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J28" s="56">
         <v>8.2383E-5</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K28" s="56">
         <v>3.2033000000000003E-5</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L28" s="56">
         <v>7.5823999999999998E-4</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M28" s="56">
         <v>4.0966E-4</v>
       </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="59">
         <v>5</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="22" t="s">
+      <c r="B29" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D29" s="61">
         <v>1.8052999999999999E-3</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E29" s="62">
         <v>2.5558E-3</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F29" s="62">
         <v>1.5617000000000001E-3</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G29" s="62">
         <v>2.1884000000000001E-3</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H29" s="62">
         <v>3.4775000000000002E-4</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I29" s="62">
         <v>2.6625999999999999E-4</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J29" s="62">
         <v>6.1809999999999999E-3</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K29" s="62">
         <v>5.0845999999999999E-3</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L29" s="62">
         <v>5.4435000000000004E-3</v>
       </c>
-      <c r="M23" s="24">
+      <c r="M29" s="62">
         <v>4.2849999999999997E-3</v>
       </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="59">
         <v>5</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B30" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D30" s="62">
         <v>1.3884E-5</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E30" s="62">
         <v>3.8886999999999997E-6</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F30" s="62">
         <v>-1.3104E-5</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G30" s="62">
         <v>-1.3104E-5</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H30" s="62">
         <v>-3.8093000000000003E-5</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I30" s="62">
         <v>-4.0092000000000002E-5</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J30" s="62">
         <v>5.2867000000000001E-5</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K30" s="62">
         <v>1.9882E-5</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L30" s="62">
         <v>3.2876000000000002E-5</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M30" s="62">
         <v>8.9001999999999997E-7</v>
       </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="59">
         <v>5</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B31" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D31" s="62">
         <v>1.2899E-5</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E31" s="62">
         <v>4.0047E-6</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F31" s="62">
         <v>4.0047E-6</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G31" s="62">
         <v>1.6852999999999999E-5</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H31" s="62">
         <v>-5.3316999999999998E-5</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I31" s="62">
         <v>-4.4422000000000003E-5</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J31" s="62">
         <v>2.8711999999999999E-5</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K31" s="62">
         <v>2.7724000000000001E-5</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L31" s="62">
         <v>2.0806E-5</v>
       </c>
-      <c r="M25" s="24">
+      <c r="M31" s="62">
         <v>1.4876E-5</v>
       </c>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="26">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="23">
+        <v>6</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="25">
+        <v>1.2317999999999999E-3</v>
+      </c>
+      <c r="E32" s="25">
+        <v>1.7470000000000001E-3</v>
+      </c>
+      <c r="F32" s="25">
+        <v>1.5154999999999999E-3</v>
+      </c>
+      <c r="G32" s="25">
+        <v>1.9800999999999998E-3</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <v>0</v>
+      </c>
+      <c r="J32" s="25">
+        <v>4.4780999999999996E-3</v>
+      </c>
+      <c r="K32" s="25">
+        <v>4.4964999999999996E-3</v>
+      </c>
+      <c r="L32" s="25">
+        <v>4.6404000000000003E-3</v>
+      </c>
+      <c r="M32" s="25">
+        <v>4.0378999999999996E-3</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="23">
+        <v>6</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="25">
+        <v>-8.5809000000000005E-5</v>
+      </c>
+      <c r="E33" s="25">
+        <v>-2.7055000000000001E-5</v>
+      </c>
+      <c r="F33" s="25">
+        <v>5.1282000000000001E-5</v>
+      </c>
+      <c r="G33" s="25">
+        <v>1.2308999999999999E-4</v>
+      </c>
+      <c r="H33" s="25">
+        <v>-1.5482000000000001E-4</v>
+      </c>
+      <c r="I33" s="25">
+        <v>-9.7E-5</v>
+      </c>
+      <c r="J33" s="25">
+        <v>-2.5190000000000001E-5</v>
+      </c>
+      <c r="K33" s="25">
+        <v>3.4496000000000003E-5</v>
+      </c>
+      <c r="L33" s="25">
+        <v>7.6462000000000001E-5</v>
+      </c>
+      <c r="M33" s="25">
+        <v>1.7625E-4</v>
+      </c>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="23">
+        <v>6</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="25">
+        <v>-1.5249E-4</v>
+      </c>
+      <c r="E34" s="25">
+        <v>-8.9812E-5</v>
+      </c>
+      <c r="F34" s="25">
+        <v>2.7595000000000001E-4</v>
+      </c>
+      <c r="G34" s="25">
+        <v>3.2739999999999999E-4</v>
+      </c>
+      <c r="H34" s="25">
+        <v>-2.2826000000000001E-4</v>
+      </c>
+      <c r="I34" s="25">
+        <v>1.1599000000000001E-4</v>
+      </c>
+      <c r="J34" s="25">
+        <v>4.8636E-5</v>
+      </c>
+      <c r="K34" s="25">
+        <v>-7.6887000000000005E-9</v>
+      </c>
+      <c r="L34" s="25">
+        <v>7.0158999999999998E-4</v>
+      </c>
+      <c r="M34" s="25">
+        <v>3.6482000000000002E-4</v>
+      </c>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="27">
+        <v>6</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="29">
+        <v>1.3586E-3</v>
+      </c>
+      <c r="E35" s="29">
+        <v>1.774E-3</v>
+      </c>
+      <c r="F35" s="29">
+        <v>1.2569E-3</v>
+      </c>
+      <c r="G35" s="29">
+        <v>1.6309E-3</v>
+      </c>
+      <c r="H35" s="29">
+        <v>2.9249000000000001E-4</v>
+      </c>
+      <c r="I35" s="29">
+        <v>3.0427999999999998E-4</v>
+      </c>
+      <c r="J35" s="29">
+        <v>5.3432999999999996E-3</v>
+      </c>
+      <c r="K35" s="29">
+        <v>4.3274999999999997E-3</v>
+      </c>
+      <c r="L35" s="29">
+        <v>4.8525E-3</v>
+      </c>
+      <c r="M35" s="29">
+        <v>3.6995000000000001E-3</v>
+      </c>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="27">
+        <v>6</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="29">
+        <v>6.1450999999999998E-6</v>
+      </c>
+      <c r="E36" s="29">
+        <v>-3.5563000000000002E-6</v>
+      </c>
+      <c r="F36" s="29">
+        <v>-2.0049000000000001E-5</v>
+      </c>
+      <c r="G36" s="29">
+        <v>-2.0049000000000001E-5</v>
+      </c>
+      <c r="H36" s="29">
+        <v>-4.4301999999999997E-5</v>
+      </c>
+      <c r="I36" s="29">
+        <v>-4.6242999999999998E-5</v>
+      </c>
+      <c r="J36" s="29">
+        <v>4.3980999999999998E-5</v>
+      </c>
+      <c r="K36" s="29">
+        <v>1.1966E-5</v>
+      </c>
+      <c r="L36" s="29">
+        <v>2.4578000000000001E-5</v>
+      </c>
+      <c r="M36" s="29">
+        <v>-6.4667000000000003E-6</v>
+      </c>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>6</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="29">
+        <v>2.5907E-6</v>
+      </c>
+      <c r="E37" s="29">
+        <v>-5.9540000000000001E-6</v>
+      </c>
+      <c r="F37" s="29">
+        <v>-5.9540000000000001E-6</v>
+      </c>
+      <c r="G37" s="29">
+        <v>6.3883999999999997E-6</v>
+      </c>
+      <c r="H37" s="29">
+        <v>-6.1020000000000002E-5</v>
+      </c>
+      <c r="I37" s="29">
+        <v>-5.2475000000000002E-5</v>
+      </c>
+      <c r="J37" s="29">
+        <v>1.7781000000000001E-5</v>
+      </c>
+      <c r="K37" s="29">
+        <v>1.6832000000000001E-5</v>
+      </c>
+      <c r="L37" s="29">
+        <v>1.0186E-5</v>
+      </c>
+      <c r="M37" s="29">
+        <v>4.4895E-6</v>
+      </c>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>7</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="64">
+        <v>1.5685E-3</v>
+      </c>
+      <c r="E38" s="64">
+        <v>2.2997999999999998E-3</v>
+      </c>
+      <c r="F38" s="64">
+        <v>1.7737E-3</v>
+      </c>
+      <c r="G38" s="64">
+        <v>2.4540999999999999E-3</v>
+      </c>
+      <c r="H38" s="64">
+        <v>0</v>
+      </c>
+      <c r="I38" s="64">
+        <v>0</v>
+      </c>
+      <c r="J38" s="64">
+        <v>5.4739999999999997E-3</v>
+      </c>
+      <c r="K38" s="64">
+        <v>4.9811999999999999E-3</v>
+      </c>
+      <c r="L38" s="64">
+        <v>4.9676E-3</v>
+      </c>
+      <c r="M38" s="64">
+        <v>4.4643E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>7</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="64">
+        <v>-6.7211000000000004E-5</v>
+      </c>
+      <c r="E39" s="64">
+        <v>-7.1373000000000003E-6</v>
+      </c>
+      <c r="F39" s="64">
+        <v>7.2960999999999995E-5</v>
+      </c>
+      <c r="G39" s="64">
+        <v>1.4637999999999999E-4</v>
+      </c>
+      <c r="H39" s="64">
+        <v>-1.3777E-4</v>
+      </c>
+      <c r="I39" s="64">
+        <v>-7.8653999999999996E-5</v>
+      </c>
+      <c r="J39" s="64">
+        <v>-5.2302000000000003E-6</v>
+      </c>
+      <c r="K39" s="64">
+        <v>5.5797000000000001E-5</v>
+      </c>
+      <c r="L39" s="64">
+        <v>9.8707000000000002E-5</v>
+      </c>
+      <c r="M39" s="64">
+        <v>2.0074000000000001E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>7</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="64">
+        <v>-1.34E-4</v>
+      </c>
+      <c r="E40" s="64">
+        <v>-6.9802999999999996E-5</v>
+      </c>
+      <c r="F40" s="64">
+        <v>3.0485000000000001E-4</v>
+      </c>
+      <c r="G40" s="64">
+        <v>3.5754999999999999E-4</v>
+      </c>
+      <c r="H40" s="64">
+        <v>-2.1162000000000001E-4</v>
+      </c>
+      <c r="I40" s="64">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="J40" s="64">
+        <v>7.2008999999999994E-5</v>
+      </c>
+      <c r="K40" s="64">
+        <v>2.2183000000000001E-5</v>
+      </c>
+      <c r="L40" s="64">
+        <v>7.4082E-4</v>
+      </c>
+      <c r="M40" s="64">
+        <v>3.9587999999999998E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>7</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="65">
+        <v>1.6670000000000001E-3</v>
+      </c>
+      <c r="E41" s="65">
+        <v>2.2339999999999999E-3</v>
+      </c>
+      <c r="F41" s="65">
+        <v>1.4645999999999999E-3</v>
+      </c>
+      <c r="G41" s="65">
+        <v>1.9702999999999999E-3</v>
+      </c>
+      <c r="H41" s="65">
+        <v>2.6704000000000002E-4</v>
+      </c>
+      <c r="I41" s="65">
+        <v>2.2196999999999999E-4</v>
+      </c>
+      <c r="J41" s="65">
+        <v>6.3924999999999997E-3</v>
+      </c>
+      <c r="K41" s="65">
+        <v>4.7685000000000002E-3</v>
+      </c>
+      <c r="L41" s="65">
+        <v>5.1926999999999997E-3</v>
+      </c>
+      <c r="M41" s="65">
+        <v>4.0708999999999997E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>7</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="65">
+        <v>1.2329E-5</v>
+      </c>
+      <c r="E42" s="65">
+        <v>2.3929E-6</v>
+      </c>
+      <c r="F42" s="65">
+        <v>-1.4499E-5</v>
+      </c>
+      <c r="G42" s="65">
+        <v>-1.4499E-5</v>
+      </c>
+      <c r="H42" s="65">
+        <v>-3.9339999999999999E-5</v>
+      </c>
+      <c r="I42" s="65">
+        <v>-4.1328000000000001E-5</v>
+      </c>
+      <c r="J42" s="65">
+        <v>5.1082000000000003E-5</v>
+      </c>
+      <c r="K42" s="65">
+        <v>1.8291000000000002E-5</v>
+      </c>
+      <c r="L42" s="65">
+        <v>3.1208999999999999E-5</v>
+      </c>
+      <c r="M42" s="65">
+        <v>-5.8802000000000005E-7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>7</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="65">
+        <v>1.1260999999999999E-5</v>
+      </c>
+      <c r="E43" s="65">
+        <v>2.4217E-6</v>
+      </c>
+      <c r="F43" s="65">
+        <v>2.4217E-6</v>
+      </c>
+      <c r="G43" s="65">
+        <v>1.5189E-5</v>
+      </c>
+      <c r="H43" s="65">
+        <v>-5.4540999999999998E-5</v>
+      </c>
+      <c r="I43" s="65">
+        <v>-4.5701999999999997E-5</v>
+      </c>
+      <c r="J43" s="65">
+        <v>2.6974999999999998E-5</v>
+      </c>
+      <c r="K43" s="65">
+        <v>2.5993E-5</v>
+      </c>
+      <c r="L43" s="65">
+        <v>1.9117999999999999E-5</v>
+      </c>
+      <c r="M43" s="65">
+        <v>1.3225E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="15">
+        <v>8</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="66">
+        <v>1.3255000000000001E-3</v>
+      </c>
+      <c r="E44" s="66">
+        <v>1.5865E-3</v>
+      </c>
+      <c r="F44" s="66">
+        <v>2.2006999999999999E-3</v>
+      </c>
+      <c r="G44" s="66">
+        <v>1.8515999999999999E-3</v>
+      </c>
+      <c r="H44" s="66">
+        <v>0</v>
+      </c>
+      <c r="I44" s="66">
+        <v>0</v>
+      </c>
+      <c r="J44" s="66">
+        <v>4.5772E-3</v>
+      </c>
+      <c r="K44" s="66">
+        <v>4.3286000000000002E-3</v>
+      </c>
+      <c r="L44" s="66">
+        <v>4.5331E-3</v>
+      </c>
+      <c r="M44" s="66">
+        <v>3.9376000000000003E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="15">
+        <v>8</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="66">
+        <v>-9.1042E-5</v>
+      </c>
+      <c r="E45" s="66">
+        <v>-3.2660000000000002E-5</v>
+      </c>
+      <c r="F45" s="66">
+        <v>4.5182000000000002E-5</v>
+      </c>
+      <c r="G45" s="66">
+        <v>1.1654000000000001E-4</v>
+      </c>
+      <c r="H45" s="66">
+        <v>-1.5961999999999999E-4</v>
+      </c>
+      <c r="I45" s="66">
+        <v>-1.0216E-4</v>
+      </c>
+      <c r="J45" s="66">
+        <v>-3.0806999999999998E-5</v>
+      </c>
+      <c r="K45" s="66">
+        <v>2.8501E-5</v>
+      </c>
+      <c r="L45" s="66">
+        <v>7.0203000000000005E-5</v>
+      </c>
+      <c r="M45" s="66">
+        <v>1.6935999999999999E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="15">
+        <v>8</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="66">
+        <v>-1.5710999999999999E-4</v>
+      </c>
+      <c r="E46" s="66">
+        <v>-9.4819000000000001E-5</v>
+      </c>
+      <c r="F46" s="66">
+        <v>2.6872000000000002E-4</v>
+      </c>
+      <c r="G46" s="66">
+        <v>3.1985999999999999E-4</v>
+      </c>
+      <c r="H46" s="66">
+        <v>-2.3242E-4</v>
+      </c>
+      <c r="I46" s="66">
+        <v>1.0972999999999999E-4</v>
+      </c>
+      <c r="J46" s="66">
+        <v>4.2787000000000002E-5</v>
+      </c>
+      <c r="K46" s="66">
+        <v>-5.5608000000000002E-6</v>
+      </c>
+      <c r="L46" s="66">
+        <v>6.9176999999999997E-4</v>
+      </c>
+      <c r="M46" s="66">
+        <v>3.5704999999999998E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
+        <v>8</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="21">
+        <v>1.4071999999999999E-3</v>
+      </c>
+      <c r="E47" s="21">
+        <v>1.6490000000000001E-3</v>
+      </c>
+      <c r="F47" s="21">
+        <v>1.5946999999999999E-3</v>
+      </c>
+      <c r="G47" s="21">
+        <v>1.5471E-3</v>
+      </c>
+      <c r="H47" s="21">
+        <v>3.4707E-4</v>
+      </c>
+      <c r="I47" s="21">
+        <v>2.8583999999999999E-4</v>
+      </c>
+      <c r="J47" s="21">
+        <v>5.4901000000000004E-3</v>
+      </c>
+      <c r="K47" s="21">
+        <v>4.2151000000000003E-3</v>
+      </c>
+      <c r="L47" s="21">
+        <v>4.7875000000000001E-3</v>
+      </c>
+      <c r="M47" s="21">
+        <v>3.6426000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
+        <v>8</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="21">
+        <v>4.9362000000000003E-6</v>
+      </c>
+      <c r="E48" s="21">
+        <v>-4.7192999999999999E-6</v>
+      </c>
+      <c r="F48" s="21">
+        <v>-2.1134000000000001E-5</v>
+      </c>
+      <c r="G48" s="21">
+        <v>-2.1134000000000001E-5</v>
+      </c>
+      <c r="H48" s="21">
+        <v>-4.5272000000000003E-5</v>
+      </c>
+      <c r="I48" s="21">
+        <v>-4.7203000000000002E-5</v>
+      </c>
+      <c r="J48" s="21">
+        <v>4.2592000000000001E-5</v>
+      </c>
+      <c r="K48" s="21">
+        <v>1.0729E-5</v>
+      </c>
+      <c r="L48" s="21">
+        <v>2.3281999999999998E-5</v>
+      </c>
+      <c r="M48" s="21">
+        <v>-7.6159000000000002E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="19">
+        <v>8</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="21">
+        <v>3.9191999999999998E-7</v>
+      </c>
+      <c r="E49" s="21">
+        <v>-8.0780999999999998E-6</v>
+      </c>
+      <c r="F49" s="21">
+        <v>-8.0780999999999998E-6</v>
+      </c>
+      <c r="G49" s="21">
+        <v>4.1563999999999997E-6</v>
+      </c>
+      <c r="H49" s="21">
+        <v>-6.2663000000000006E-5</v>
+      </c>
+      <c r="I49" s="21">
+        <v>-5.4193000000000001E-5</v>
+      </c>
+      <c r="J49" s="21">
+        <v>1.5449999999999999E-5</v>
+      </c>
+      <c r="K49" s="21">
+        <v>1.4508999999999999E-5</v>
+      </c>
+      <c r="L49" s="21">
+        <v>7.9208000000000005E-6</v>
+      </c>
+      <c r="M49" s="21">
+        <v>2.2741E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="44">
+        <v>9</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="67">
+        <v>1.5774999999999999E-3</v>
+      </c>
+      <c r="E50" s="67">
+        <v>1.9580999999999999E-3</v>
+      </c>
+      <c r="F50" s="67">
+        <v>2.1288000000000001E-3</v>
+      </c>
+      <c r="G50" s="67">
+        <v>2.0347999999999998E-3</v>
+      </c>
+      <c r="H50" s="67">
+        <v>0</v>
+      </c>
+      <c r="I50" s="67">
+        <v>0</v>
+      </c>
+      <c r="J50" s="67">
+        <v>4.5456999999999997E-3</v>
+      </c>
+      <c r="K50" s="67">
+        <v>5.1824999999999996E-3</v>
+      </c>
+      <c r="L50" s="67">
+        <v>5.0010000000000002E-3</v>
+      </c>
+      <c r="M50" s="67">
+        <v>4.3914999999999996E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="44">
+        <v>9</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="67">
+        <v>-6.6976000000000004E-5</v>
+      </c>
+      <c r="E51" s="67">
+        <v>-6.8858000000000002E-6</v>
+      </c>
+      <c r="F51" s="67">
+        <v>7.3234999999999999E-5</v>
+      </c>
+      <c r="G51" s="67">
+        <v>1.4668E-4</v>
+      </c>
+      <c r="H51" s="67">
+        <v>-1.3756E-4</v>
+      </c>
+      <c r="I51" s="67">
+        <v>-7.8422000000000002E-5</v>
+      </c>
+      <c r="J51" s="67">
+        <v>-4.9780999999999998E-6</v>
+      </c>
+      <c r="K51" s="67">
+        <v>5.6066000000000002E-5</v>
+      </c>
+      <c r="L51" s="67">
+        <v>9.8987999999999995E-5</v>
+      </c>
+      <c r="M51" s="67">
+        <v>2.0105000000000001E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="44">
+        <v>9</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="67">
+        <v>-1.3922000000000001E-4</v>
+      </c>
+      <c r="E52" s="67">
+        <v>-7.5456000000000004E-5</v>
+      </c>
+      <c r="F52" s="67">
+        <v>2.9669000000000001E-4</v>
+      </c>
+      <c r="G52" s="67">
+        <v>3.4903000000000001E-4</v>
+      </c>
+      <c r="H52" s="67">
+        <v>-2.1631999999999999E-4</v>
+      </c>
+      <c r="I52" s="67">
+        <v>1.3392999999999999E-4</v>
+      </c>
+      <c r="J52" s="67">
+        <v>6.5406000000000004E-5</v>
+      </c>
+      <c r="K52" s="67">
+        <v>1.5914E-5</v>
+      </c>
+      <c r="L52" s="67">
+        <v>7.2973999999999999E-4</v>
+      </c>
+      <c r="M52" s="67">
+        <v>3.8709999999999998E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="48">
+        <v>9</v>
+      </c>
+      <c r="B53" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="68">
+        <v>1.6358E-3</v>
+      </c>
+      <c r="E53" s="68">
+        <v>1.9624999999999998E-3</v>
+      </c>
+      <c r="F53" s="68">
+        <v>1.606E-3</v>
+      </c>
+      <c r="G53" s="68">
+        <v>1.6983E-3</v>
+      </c>
+      <c r="H53" s="68">
+        <v>2.4096E-4</v>
+      </c>
+      <c r="I53" s="68">
+        <v>2.3232999999999999E-4</v>
+      </c>
+      <c r="J53" s="68">
+        <v>5.4139000000000001E-3</v>
+      </c>
+      <c r="K53" s="68">
+        <v>4.8891999999999998E-3</v>
+      </c>
+      <c r="L53" s="68">
+        <v>5.1799000000000003E-3</v>
+      </c>
+      <c r="M53" s="68">
+        <v>3.9814000000000004E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="48">
+        <v>9</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="68">
+        <v>1.0597999999999999E-5</v>
+      </c>
+      <c r="E54" s="68">
+        <v>7.2745999999999998E-7</v>
+      </c>
+      <c r="F54" s="68">
+        <v>-1.6053E-5</v>
+      </c>
+      <c r="G54" s="68">
+        <v>-1.6053E-5</v>
+      </c>
+      <c r="H54" s="68">
+        <v>-4.0729000000000003E-5</v>
+      </c>
+      <c r="I54" s="68">
+        <v>-4.2704000000000003E-5</v>
+      </c>
+      <c r="J54" s="68">
+        <v>4.9094000000000001E-5</v>
+      </c>
+      <c r="K54" s="68">
+        <v>1.6521E-5</v>
+      </c>
+      <c r="L54" s="68">
+        <v>2.9352E-5</v>
+      </c>
+      <c r="M54" s="68">
+        <v>-2.2336999999999999E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="48">
+        <v>9</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="68">
+        <v>1.0283E-5</v>
+      </c>
+      <c r="E55" s="68">
+        <v>1.477E-6</v>
+      </c>
+      <c r="F55" s="68">
+        <v>1.477E-6</v>
+      </c>
+      <c r="G55" s="68">
+        <v>1.4197E-5</v>
+      </c>
+      <c r="H55" s="68">
+        <v>-5.5272000000000002E-5</v>
+      </c>
+      <c r="I55" s="68">
+        <v>-4.6465999999999999E-5</v>
+      </c>
+      <c r="J55" s="68">
+        <v>2.5938000000000001E-5</v>
+      </c>
+      <c r="K55" s="68">
+        <v>2.4958999999999999E-5</v>
+      </c>
+      <c r="L55" s="68">
+        <v>1.8110000000000001E-5</v>
+      </c>
+      <c r="M55" s="68">
+        <v>1.224E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="53">
+        <v>10</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="40">
+        <v>1.3973E-3</v>
+      </c>
+      <c r="E56" s="40">
+        <v>1.5964E-3</v>
+      </c>
+      <c r="F56" s="40">
+        <v>2.0108999999999999E-3</v>
+      </c>
+      <c r="G56" s="40">
+        <v>1.7968000000000001E-3</v>
+      </c>
+      <c r="H56" s="40">
+        <v>0</v>
+      </c>
+      <c r="I56" s="40">
+        <v>0</v>
+      </c>
+      <c r="J56" s="40">
+        <v>4.6157000000000004E-3</v>
+      </c>
+      <c r="K56" s="40">
+        <v>4.5902E-3</v>
+      </c>
+      <c r="L56" s="40">
+        <v>4.9198000000000002E-3</v>
+      </c>
+      <c r="M56" s="40">
+        <v>4.1244000000000003E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="53">
+        <v>10</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="40">
+        <v>-7.8172999999999998E-5</v>
+      </c>
+      <c r="E57" s="40">
+        <v>-1.8878000000000001E-5</v>
+      </c>
+      <c r="F57" s="40">
+        <v>6.0182000000000001E-5</v>
+      </c>
+      <c r="G57" s="40">
+        <v>1.3265E-4</v>
+      </c>
+      <c r="H57" s="40">
+        <v>-1.4782E-4</v>
+      </c>
+      <c r="I57" s="40">
+        <v>-8.9468000000000005E-5</v>
+      </c>
+      <c r="J57" s="40">
+        <v>-1.6996000000000001E-5</v>
+      </c>
+      <c r="K57" s="40">
+        <v>4.3241000000000002E-5</v>
+      </c>
+      <c r="L57" s="40">
+        <v>8.5594999999999996E-5</v>
+      </c>
+      <c r="M57" s="40">
+        <v>1.863E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="53">
+        <v>10</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="40">
+        <v>-1.4886000000000001E-4</v>
+      </c>
+      <c r="E58" s="40">
+        <v>-8.5890000000000006E-5</v>
+      </c>
+      <c r="F58" s="40">
+        <v>2.8162E-4</v>
+      </c>
+      <c r="G58" s="40">
+        <v>3.3331000000000002E-4</v>
+      </c>
+      <c r="H58" s="40">
+        <v>-2.2499999999999999E-4</v>
+      </c>
+      <c r="I58" s="40">
+        <v>1.2089E-4</v>
+      </c>
+      <c r="J58" s="40">
+        <v>5.3217000000000002E-5</v>
+      </c>
+      <c r="K58" s="40">
+        <v>4.3416000000000001E-6</v>
+      </c>
+      <c r="L58" s="40">
+        <v>7.0927999999999996E-4</v>
+      </c>
+      <c r="M58" s="40">
+        <v>3.7091000000000001E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="58">
+        <v>10</v>
+      </c>
+      <c r="B59" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="41">
+        <v>1.4618999999999999E-3</v>
+      </c>
+      <c r="E59" s="41">
+        <v>1.6595E-3</v>
+      </c>
+      <c r="F59" s="41">
+        <v>1.4989000000000001E-3</v>
+      </c>
+      <c r="G59" s="41">
+        <v>1.5157E-3</v>
+      </c>
+      <c r="H59" s="41">
+        <v>2.2801000000000001E-4</v>
+      </c>
+      <c r="I59" s="41">
+        <v>3.0778000000000001E-4</v>
+      </c>
+      <c r="J59" s="41">
+        <v>5.4644999999999997E-3</v>
+      </c>
+      <c r="K59" s="41">
+        <v>4.3854999999999996E-3</v>
+      </c>
+      <c r="L59" s="41">
+        <v>5.0803999999999997E-3</v>
+      </c>
+      <c r="M59" s="41">
+        <v>3.7507E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="58">
+        <v>10</v>
+      </c>
+      <c r="B60" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="41">
+        <v>6.8387999999999996E-6</v>
+      </c>
+      <c r="E60" s="41">
+        <v>-2.8890000000000002E-6</v>
+      </c>
+      <c r="F60" s="41">
+        <v>-1.9426E-5</v>
+      </c>
+      <c r="G60" s="41">
+        <v>-1.9426E-5</v>
+      </c>
+      <c r="H60" s="41">
+        <v>-4.3745999999999998E-5</v>
+      </c>
+      <c r="I60" s="41">
+        <v>-4.5691E-5</v>
+      </c>
+      <c r="J60" s="41">
+        <v>4.4777000000000002E-5</v>
+      </c>
+      <c r="K60" s="41">
+        <v>1.2675E-5</v>
+      </c>
+      <c r="L60" s="41">
+        <v>2.5321999999999999E-5</v>
+      </c>
+      <c r="M60" s="41">
+        <v>-5.8073999999999997E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="58">
+        <v>10</v>
+      </c>
+      <c r="B61" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="41">
+        <v>4.7751000000000002E-6</v>
+      </c>
+      <c r="E61" s="41">
+        <v>-3.8437000000000001E-6</v>
+      </c>
+      <c r="F61" s="41">
+        <v>-3.8437000000000001E-6</v>
+      </c>
+      <c r="G61" s="41">
+        <v>8.6057999999999998E-6</v>
+      </c>
+      <c r="H61" s="41">
+        <v>-5.9388000000000001E-5</v>
+      </c>
+      <c r="I61" s="41">
+        <v>-5.0769000000000001E-5</v>
+      </c>
+      <c r="J61" s="41">
+        <v>2.0098E-5</v>
+      </c>
+      <c r="K61" s="41">
+        <v>1.914E-5</v>
+      </c>
+      <c r="L61" s="41">
+        <v>1.2435999999999999E-5</v>
+      </c>
+      <c r="M61" s="41">
+        <v>6.6904000000000004E-6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="54">
+        <v>11</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="69">
+        <v>1.0382E-3</v>
+      </c>
+      <c r="E62" s="69">
+        <v>1.6697999999999999E-3</v>
+      </c>
+      <c r="F62" s="69">
+        <v>1.8634999999999999E-3</v>
+      </c>
+      <c r="G62" s="69">
+        <v>1.6490000000000001E-3</v>
+      </c>
+      <c r="H62" s="69">
+        <v>0</v>
+      </c>
+      <c r="I62" s="69">
+        <v>0</v>
+      </c>
+      <c r="J62" s="69">
+        <v>3.3517999999999998E-3</v>
+      </c>
+      <c r="K62" s="69">
+        <v>3.9386999999999998E-3</v>
+      </c>
+      <c r="L62" s="69">
+        <v>3.0151000000000002E-3</v>
+      </c>
+      <c r="M62" s="69">
+        <v>3.5858999999999999E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="54">
+        <v>11</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="69">
+        <v>-1.0045E-4</v>
+      </c>
+      <c r="E63" s="69">
+        <v>-4.2732999999999999E-5</v>
+      </c>
+      <c r="F63" s="69">
+        <v>3.4218999999999999E-5</v>
+      </c>
+      <c r="G63" s="69">
+        <v>1.0476000000000001E-4</v>
+      </c>
+      <c r="H63" s="69">
+        <v>-1.6824E-4</v>
+      </c>
+      <c r="I63" s="69">
+        <v>-1.1144E-4</v>
+      </c>
+      <c r="J63" s="69">
+        <v>-4.0899999999999998E-5</v>
+      </c>
+      <c r="K63" s="69">
+        <v>1.7730000000000001E-5</v>
+      </c>
+      <c r="L63" s="69">
+        <v>5.8953999999999998E-5</v>
+      </c>
+      <c r="M63" s="69">
+        <v>1.5698E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="54">
+        <v>11</v>
+      </c>
+      <c r="B64" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="69">
+        <v>-1.7095000000000001E-4</v>
+      </c>
+      <c r="E64" s="69">
+        <v>-1.098E-4</v>
+      </c>
+      <c r="F64" s="69">
+        <v>2.4708999999999999E-4</v>
+      </c>
+      <c r="G64" s="69">
+        <v>2.9729000000000002E-4</v>
+      </c>
+      <c r="H64" s="69">
+        <v>-2.4488999999999999E-4</v>
+      </c>
+      <c r="I64" s="69">
+        <v>9.1005E-5</v>
+      </c>
+      <c r="J64" s="69">
+        <v>2.5287E-5</v>
+      </c>
+      <c r="K64" s="69">
+        <v>-2.2175999999999999E-5</v>
+      </c>
+      <c r="L64" s="69">
+        <v>6.6239000000000001E-4</v>
+      </c>
+      <c r="M64" s="69">
+        <v>3.3379999999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="59">
+        <v>11</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="70">
+        <v>1.1425000000000001E-3</v>
+      </c>
+      <c r="E65" s="70">
+        <v>1.6521000000000001E-3</v>
+      </c>
+      <c r="F65" s="70">
+        <v>1.3694E-3</v>
+      </c>
+      <c r="G65" s="70">
+        <v>1.3780000000000001E-3</v>
+      </c>
+      <c r="H65" s="70">
+        <v>3.0526000000000001E-4</v>
+      </c>
+      <c r="I65" s="70">
+        <v>0</v>
+      </c>
+      <c r="J65" s="70">
+        <v>4.2024999999999996E-3</v>
+      </c>
+      <c r="K65" s="70">
+        <v>3.8911000000000002E-3</v>
+      </c>
+      <c r="L65" s="70">
+        <v>3.3847E-3</v>
+      </c>
+      <c r="M65" s="70">
+        <v>3.3647E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="59">
+        <v>11</v>
+      </c>
+      <c r="B66" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="70">
+        <v>1.6739E-6</v>
+      </c>
+      <c r="E66" s="70">
+        <v>-7.8576000000000008E-6</v>
+      </c>
+      <c r="F66" s="70">
+        <v>-2.4060999999999999E-5</v>
+      </c>
+      <c r="G66" s="70">
+        <v>-2.4060999999999999E-5</v>
+      </c>
+      <c r="H66" s="70">
+        <v>-4.7889999999999997E-5</v>
+      </c>
+      <c r="I66" s="70">
+        <v>-4.9796000000000002E-5</v>
+      </c>
+      <c r="J66" s="70">
+        <v>3.8847000000000003E-5</v>
+      </c>
+      <c r="K66" s="70">
+        <v>7.3927000000000004E-6</v>
+      </c>
+      <c r="L66" s="70">
+        <v>1.9783999999999999E-5</v>
+      </c>
+      <c r="M66" s="70">
+        <v>-1.0716999999999999E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="59">
+        <v>11</v>
+      </c>
+      <c r="B67" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="70">
+        <v>-3.3173E-6</v>
+      </c>
+      <c r="E67" s="70">
+        <v>-1.1661000000000001E-5</v>
+      </c>
+      <c r="F67" s="70">
+        <v>-1.1661000000000001E-5</v>
+      </c>
+      <c r="G67" s="70">
+        <v>3.9116999999999997E-7</v>
+      </c>
+      <c r="H67" s="70">
+        <v>-6.5434999999999999E-5</v>
+      </c>
+      <c r="I67" s="70">
+        <v>-5.7089999999999997E-5</v>
+      </c>
+      <c r="J67" s="70">
+        <v>1.1517E-5</v>
+      </c>
+      <c r="K67" s="70">
+        <v>1.059E-5</v>
+      </c>
+      <c r="L67" s="70">
+        <v>4.0996999999999999E-6</v>
+      </c>
+      <c r="M67" s="70">
+        <v>-1.4631E-6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="23">
+        <v>12</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="71">
+        <v>2.63E-3</v>
+      </c>
+      <c r="E68" s="71">
+        <v>3.1535999999999999E-3</v>
+      </c>
+      <c r="F68" s="71">
+        <v>2.7775999999999999E-3</v>
+      </c>
+      <c r="G68" s="71">
+        <v>2.8592000000000001E-3</v>
+      </c>
+      <c r="H68" s="71">
+        <v>0</v>
+      </c>
+      <c r="I68" s="71">
+        <v>0</v>
+      </c>
+      <c r="J68" s="71">
+        <v>6.0680999999999999E-3</v>
+      </c>
+      <c r="K68" s="71">
+        <v>5.8434999999999997E-3</v>
+      </c>
+      <c r="L68" s="71">
+        <v>5.6686000000000002E-3</v>
+      </c>
+      <c r="M68" s="71">
+        <v>5.2713999999999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="23">
+        <v>12</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="71">
+        <v>-4.4808000000000002E-5</v>
+      </c>
+      <c r="E69" s="71">
+        <v>1.6857000000000001E-5</v>
+      </c>
+      <c r="F69" s="71">
+        <v>9.9075999999999998E-5</v>
+      </c>
+      <c r="G69" s="71">
+        <v>1.7443999999999999E-4</v>
+      </c>
+      <c r="H69" s="71">
+        <v>-1.1724E-4</v>
+      </c>
+      <c r="I69" s="71">
+        <v>-5.6552999999999999E-5</v>
+      </c>
+      <c r="J69" s="71">
+        <v>1.8814E-5</v>
+      </c>
+      <c r="K69" s="71">
+        <v>8.1458000000000005E-5</v>
+      </c>
+      <c r="L69" s="71">
+        <v>1.2549999999999999E-4</v>
+      </c>
+      <c r="M69" s="71">
+        <v>2.3023999999999999E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="23">
+        <v>12</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="71">
+        <v>-1.1068E-4</v>
+      </c>
+      <c r="E70" s="71">
+        <v>-4.4555000000000003E-5</v>
+      </c>
+      <c r="F70" s="71">
+        <v>3.4131E-4</v>
+      </c>
+      <c r="G70" s="71">
+        <v>3.9559000000000003E-4</v>
+      </c>
+      <c r="H70" s="71">
+        <v>-1.9060999999999999E-4</v>
+      </c>
+      <c r="I70" s="71">
+        <v>1.7255999999999999E-4</v>
+      </c>
+      <c r="J70" s="71">
+        <v>1.015E-4</v>
+      </c>
+      <c r="K70" s="71">
+        <v>5.0185000000000001E-5</v>
+      </c>
+      <c r="L70" s="71">
+        <v>7.9034000000000005E-4</v>
+      </c>
+      <c r="M70" s="71">
+        <v>4.3506000000000003E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="27">
+        <v>12</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="72">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="E71" s="72">
+        <v>2.9627999999999998E-3</v>
+      </c>
+      <c r="F71" s="72">
+        <v>2.0909000000000001E-3</v>
+      </c>
+      <c r="G71" s="72">
+        <v>2.3273999999999999E-3</v>
+      </c>
+      <c r="H71" s="72">
+        <v>2.2408000000000001E-4</v>
+      </c>
+      <c r="I71" s="72">
+        <v>2.4845999999999999E-4</v>
+      </c>
+      <c r="J71" s="72">
+        <v>7.1875000000000003E-3</v>
+      </c>
+      <c r="K71" s="72">
+        <v>5.6360999999999998E-3</v>
+      </c>
+      <c r="L71" s="72">
+        <v>5.9985000000000004E-3</v>
+      </c>
+      <c r="M71" s="72">
+        <v>4.8379E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="27">
+        <v>12</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="72">
+        <v>1.9516000000000001E-5</v>
+      </c>
+      <c r="E72" s="72">
+        <v>9.3062000000000008E-6</v>
+      </c>
+      <c r="F72" s="72">
+        <v>-8.0502999999999998E-6</v>
+      </c>
+      <c r="G72" s="72">
+        <v>-8.0502999999999998E-6</v>
+      </c>
+      <c r="H72" s="72">
+        <v>-3.3574000000000001E-5</v>
+      </c>
+      <c r="I72" s="72">
+        <v>-3.5615999999999999E-5</v>
+      </c>
+      <c r="J72" s="72">
+        <v>5.9333999999999998E-5</v>
+      </c>
+      <c r="K72" s="72">
+        <v>2.5641999999999999E-5</v>
+      </c>
+      <c r="L72" s="72">
+        <v>3.8914E-5</v>
+      </c>
+      <c r="M72" s="72">
+        <v>6.2433E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="27">
+        <v>12</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="72">
+        <v>2.1288E-5</v>
+      </c>
+      <c r="E73" s="72">
+        <v>1.2108E-5</v>
+      </c>
+      <c r="F73" s="72">
+        <v>1.2108E-5</v>
+      </c>
+      <c r="G73" s="72">
+        <v>2.5367E-5</v>
+      </c>
+      <c r="H73" s="72">
+        <v>-4.7049000000000003E-5</v>
+      </c>
+      <c r="I73" s="72">
+        <v>-3.7868999999999999E-5</v>
+      </c>
+      <c r="J73" s="72">
+        <v>3.7607000000000001E-5</v>
+      </c>
+      <c r="K73" s="72">
+        <v>3.6587000000000001E-5</v>
+      </c>
+      <c r="L73" s="72">
+        <v>2.9447000000000001E-5</v>
+      </c>
+      <c r="M73" s="72">
+        <v>2.3326999999999999E-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
         <v>13</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="27" t="s">
+      <c r="B74" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D74" s="17">
         <v>1.4035E-3</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E74" s="17">
         <v>2.1266000000000002E-3</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F74" s="17">
         <v>1.9509E-3</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G74" s="17">
         <v>2.016E-3</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H74" s="17">
         <v>0</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I74" s="17">
         <v>0</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J74" s="17">
         <v>5.3179999999999998E-3</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K74" s="17">
         <v>5.1339000000000003E-3</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L74" s="17">
         <v>5.3356000000000002E-3</v>
       </c>
-      <c r="M26" s="28">
+      <c r="M74" s="17">
         <v>4.8479999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
         <v>13</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="B75" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="28">
+      <c r="D75" s="17">
         <v>-6.1614999999999999E-5</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E75" s="17">
         <v>-1.1439E-6</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F75" s="17">
         <v>7.9484E-5</v>
       </c>
-      <c r="G27" s="28">
+      <c r="G75" s="17">
         <v>1.5338999999999999E-4</v>
       </c>
-      <c r="H27" s="28">
+      <c r="H75" s="17">
         <v>-1.3264E-4</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I75" s="17">
         <v>-7.3133000000000006E-5</v>
       </c>
-      <c r="J27" s="28">
+      <c r="J75" s="17">
         <v>7.7578000000000003E-7</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K75" s="17">
         <v>6.2206999999999996E-5</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L75" s="17">
         <v>1.054E-4</v>
       </c>
-      <c r="M27" s="28">
+      <c r="M75" s="17">
         <v>2.0811000000000001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="26">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
         <v>13</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="B76" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D76" s="17">
         <v>-1.3546000000000001E-4</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E76" s="17">
         <v>-7.1376000000000002E-5</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F76" s="17">
         <v>3.0257999999999999E-4</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G76" s="17">
         <v>3.5518000000000002E-4</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H76" s="17">
         <v>-2.1291999999999999E-4</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I76" s="17">
         <v>1.3903E-4</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J76" s="17">
         <v>7.0171000000000003E-5</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K76" s="17">
         <v>2.0438E-5</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L76" s="17">
         <v>7.3773999999999997E-4</v>
       </c>
-      <c r="M28" s="28">
+      <c r="M76" s="17">
         <v>3.9344E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="19">
         <v>13</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="31" t="s">
+      <c r="B77" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D77" s="21">
         <v>1.5234999999999999E-3</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E77" s="21">
         <v>2.0788E-3</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F77" s="21">
         <v>1.5204000000000001E-3</v>
       </c>
-      <c r="G29" s="32">
+      <c r="G77" s="21">
         <v>1.6892000000000001E-3</v>
       </c>
-      <c r="H29" s="32">
+      <c r="H77" s="21">
         <v>2.2733000000000001E-4</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I77" s="21">
         <v>2.6977000000000001E-4</v>
       </c>
-      <c r="J29" s="32">
+      <c r="J77" s="21">
         <v>6.1780000000000003E-3</v>
       </c>
-      <c r="K29" s="32">
+      <c r="K77" s="21">
         <v>4.8382E-3</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L77" s="21">
         <v>5.4567000000000001E-3</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M77" s="21">
         <v>4.3147999999999997E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="19">
         <v>13</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="33" t="s">
+      <c r="B78" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D78" s="21">
         <v>1.1816E-5</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E78" s="21">
         <v>1.8992E-6</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F78" s="21">
         <v>-1.4960000000000001E-5</v>
       </c>
-      <c r="G30" s="32">
+      <c r="G78" s="21">
         <v>-1.4960000000000001E-5</v>
       </c>
-      <c r="H30" s="32">
+      <c r="H78" s="21">
         <v>-3.9752000000000002E-5</v>
       </c>
-      <c r="I30" s="32">
+      <c r="I78" s="21">
         <v>-4.1736000000000002E-5</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J78" s="21">
         <v>5.0491999999999997E-5</v>
       </c>
-      <c r="K30" s="32">
+      <c r="K78" s="21">
         <v>1.7765999999999999E-5</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L78" s="21">
         <v>3.0657999999999997E-5</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M78" s="21">
         <v>-1.0758999999999999E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="19">
         <v>13</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="B79" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D79" s="21">
         <v>1.2072999999999999E-5</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E79" s="21">
         <v>3.2065999999999999E-6</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F79" s="21">
         <v>3.2065999999999999E-6</v>
       </c>
-      <c r="G31" s="32">
+      <c r="G79" s="21">
         <v>1.6013999999999999E-5</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H79" s="21">
         <v>-5.3934000000000002E-5</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I79" s="21">
         <v>-4.5068000000000003E-5</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J79" s="21">
         <v>2.7835999999999999E-5</v>
       </c>
-      <c r="K31" s="32">
+      <c r="K79" s="21">
         <v>2.6851000000000001E-5</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L79" s="21">
         <v>1.9955000000000001E-5</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M79" s="21">
         <v>1.4044E-5</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C38" s="7"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="7"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H50" s="7"/>
-      <c r="J50" s="7"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="J58" s="7"/>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="J59" s="7"/>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C60" s="7"/>
-      <c r="H60" s="7"/>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H61" s="7"/>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-    </row>
-    <row r="65" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H65" s="7"/>
-      <c r="J65" s="7"/>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="44">
+        <v>14</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="67">
+        <v>1.101E-3</v>
+      </c>
+      <c r="E80" s="67">
+        <v>1.8234E-3</v>
+      </c>
+      <c r="F80" s="67">
+        <v>1.8014999999999999E-3</v>
+      </c>
+      <c r="G80" s="67">
+        <v>2.003E-3</v>
+      </c>
+      <c r="H80" s="67">
+        <v>0</v>
+      </c>
+      <c r="I80" s="67">
+        <v>0</v>
+      </c>
+      <c r="J80" s="67">
+        <v>4.7901999999999997E-3</v>
+      </c>
+      <c r="K80" s="67">
+        <v>4.5982999999999996E-3</v>
+      </c>
+      <c r="L80" s="67">
+        <v>3.2326E-3</v>
+      </c>
+      <c r="M80" s="67">
+        <v>4.2338999999999996E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="44">
+        <v>14</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="67">
+        <v>-7.9895999999999995E-5</v>
+      </c>
+      <c r="E81" s="67">
+        <v>-2.0723000000000001E-5</v>
+      </c>
+      <c r="F81" s="67">
+        <v>5.8174999999999998E-5</v>
+      </c>
+      <c r="G81" s="67">
+        <v>1.305E-4</v>
+      </c>
+      <c r="H81" s="67">
+        <v>-1.494E-4</v>
+      </c>
+      <c r="I81" s="67">
+        <v>-9.1167000000000003E-5</v>
+      </c>
+      <c r="J81" s="67">
+        <v>-1.8844000000000001E-5</v>
+      </c>
+      <c r="K81" s="67">
+        <v>4.1267999999999999E-5</v>
+      </c>
+      <c r="L81" s="67">
+        <v>8.3534000000000004E-5</v>
+      </c>
+      <c r="M81" s="67">
+        <v>1.8403000000000001E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="44">
+        <v>14</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="67">
+        <v>-1.5063000000000001E-4</v>
+      </c>
+      <c r="E82" s="67">
+        <v>-8.7806000000000006E-5</v>
+      </c>
+      <c r="F82" s="67">
+        <v>2.7884999999999997E-4</v>
+      </c>
+      <c r="G82" s="67">
+        <v>3.3042999999999999E-4</v>
+      </c>
+      <c r="H82" s="67">
+        <v>-2.2659000000000001E-4</v>
+      </c>
+      <c r="I82" s="67">
+        <v>1.1849999999999999E-4</v>
+      </c>
+      <c r="J82" s="67">
+        <v>5.0980000000000003E-5</v>
+      </c>
+      <c r="K82" s="67">
+        <v>2.2172000000000001E-6</v>
+      </c>
+      <c r="L82" s="67">
+        <v>7.0551999999999995E-4</v>
+      </c>
+      <c r="M82" s="67">
+        <v>3.6792999999999998E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="48">
+        <v>14</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="68">
+        <v>1.2702E-3</v>
+      </c>
+      <c r="E83" s="68">
+        <v>1.8281E-3</v>
+      </c>
+      <c r="F83" s="68">
+        <v>1.4023E-3</v>
+      </c>
+      <c r="G83" s="68">
+        <v>1.6452000000000001E-3</v>
+      </c>
+      <c r="H83" s="68">
+        <v>2.3835999999999999E-4</v>
+      </c>
+      <c r="I83" s="68">
+        <v>2.4465000000000001E-4</v>
+      </c>
+      <c r="J83" s="68">
+        <v>5.6712999999999998E-3</v>
+      </c>
+      <c r="K83" s="68">
+        <v>4.4140000000000004E-3</v>
+      </c>
+      <c r="L83" s="68">
+        <v>3.6051E-3</v>
+      </c>
+      <c r="M83" s="68">
+        <v>3.8538000000000001E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="48">
+        <v>14</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="68">
+        <v>7.3601000000000001E-6</v>
+      </c>
+      <c r="E84" s="68">
+        <v>-2.3875E-6</v>
+      </c>
+      <c r="F84" s="68">
+        <v>-1.8958E-5</v>
+      </c>
+      <c r="G84" s="68">
+        <v>-1.8958E-5</v>
+      </c>
+      <c r="H84" s="68">
+        <v>-4.3327E-5</v>
+      </c>
+      <c r="I84" s="68">
+        <v>-4.5277E-5</v>
+      </c>
+      <c r="J84" s="68">
+        <v>4.5376000000000001E-5</v>
+      </c>
+      <c r="K84" s="68">
+        <v>1.3209E-5</v>
+      </c>
+      <c r="L84" s="68">
+        <v>2.5880999999999998E-5</v>
+      </c>
+      <c r="M84" s="68">
+        <v>-5.3117999999999997E-6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="48">
+        <v>14</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="68">
+        <v>4.7778000000000002E-6</v>
+      </c>
+      <c r="E85" s="68">
+        <v>-3.8411000000000004E-6</v>
+      </c>
+      <c r="F85" s="68">
+        <v>-3.8411000000000004E-6</v>
+      </c>
+      <c r="G85" s="68">
+        <v>8.6085000000000007E-6</v>
+      </c>
+      <c r="H85" s="68">
+        <v>-5.9385999999999997E-5</v>
+      </c>
+      <c r="I85" s="68">
+        <v>-5.0766999999999997E-5</v>
+      </c>
+      <c r="J85" s="68">
+        <v>2.0100000000000001E-5</v>
+      </c>
+      <c r="K85" s="68">
+        <v>1.9143E-5</v>
+      </c>
+      <c r="L85" s="68">
+        <v>1.2439000000000001E-5</v>
+      </c>
+      <c r="M85" s="68">
+        <v>6.6931000000000003E-6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="53">
+        <v>15</v>
+      </c>
+      <c r="B86" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="40">
+        <v>1.2741E-3</v>
+      </c>
+      <c r="E86" s="40">
+        <v>1.8069E-3</v>
+      </c>
+      <c r="F86" s="40">
+        <v>1.9342000000000001E-3</v>
+      </c>
+      <c r="G86" s="40">
+        <v>2.1616999999999999E-3</v>
+      </c>
+      <c r="H86" s="40">
+        <v>0</v>
+      </c>
+      <c r="I86" s="40">
+        <v>0</v>
+      </c>
+      <c r="J86" s="40">
+        <v>4.7987000000000004E-3</v>
+      </c>
+      <c r="K86" s="40">
+        <v>4.8541000000000001E-3</v>
+      </c>
+      <c r="L86" s="40">
+        <v>4.9982000000000004E-3</v>
+      </c>
+      <c r="M86" s="40">
+        <v>4.3625000000000001E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="53">
+        <v>15</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="40">
+        <v>-7.3887999999999995E-5</v>
+      </c>
+      <c r="E87" s="40">
+        <v>-1.4289E-5</v>
+      </c>
+      <c r="F87" s="40">
+        <v>6.5177000000000003E-5</v>
+      </c>
+      <c r="G87" s="40">
+        <v>1.3802000000000001E-4</v>
+      </c>
+      <c r="H87" s="40">
+        <v>-1.4389000000000001E-4</v>
+      </c>
+      <c r="I87" s="40">
+        <v>-8.5241000000000006E-5</v>
+      </c>
+      <c r="J87" s="40">
+        <v>-1.2397E-5</v>
+      </c>
+      <c r="K87" s="40">
+        <v>4.8149000000000003E-5</v>
+      </c>
+      <c r="L87" s="40">
+        <v>9.0719999999999999E-5</v>
+      </c>
+      <c r="M87" s="40">
+        <v>1.9194000000000001E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="53">
+        <v>15</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="40">
+        <v>-1.4746E-4</v>
+      </c>
+      <c r="E88" s="40">
+        <v>-8.4369000000000005E-5</v>
+      </c>
+      <c r="F88" s="40">
+        <v>2.8381000000000001E-4</v>
+      </c>
+      <c r="G88" s="40">
+        <v>3.3560000000000003E-4</v>
+      </c>
+      <c r="H88" s="40">
+        <v>-2.2373E-4</v>
+      </c>
+      <c r="I88" s="40">
+        <v>1.2279000000000001E-4</v>
+      </c>
+      <c r="J88" s="40">
+        <v>5.4994999999999998E-5</v>
+      </c>
+      <c r="K88" s="40">
+        <v>6.0290999999999996E-6</v>
+      </c>
+      <c r="L88" s="40">
+        <v>7.1226000000000004E-4</v>
+      </c>
+      <c r="M88" s="40">
+        <v>3.7326999999999998E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="58">
+        <v>15</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="41">
+        <v>1.3902000000000001E-3</v>
+      </c>
+      <c r="E89" s="41">
+        <v>1.8152999999999999E-3</v>
+      </c>
+      <c r="F89" s="41">
+        <v>1.4698999999999999E-3</v>
+      </c>
+      <c r="G89" s="41">
+        <v>1.7343E-3</v>
+      </c>
+      <c r="H89" s="41">
+        <v>2.3629E-4</v>
+      </c>
+      <c r="I89" s="41">
+        <v>2.3541999999999999E-4</v>
+      </c>
+      <c r="J89" s="41">
+        <v>5.6385000000000003E-3</v>
+      </c>
+      <c r="K89" s="41">
+        <v>4.5913999999999998E-3</v>
+      </c>
+      <c r="L89" s="41">
+        <v>5.1400999999999999E-3</v>
+      </c>
+      <c r="M89" s="41">
+        <v>3.9272999999999999E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="58">
+        <v>15</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="41">
+        <v>7.9719000000000007E-6</v>
+      </c>
+      <c r="E90" s="41">
+        <v>-1.7989E-6</v>
+      </c>
+      <c r="F90" s="41">
+        <v>-1.8408999999999999E-5</v>
+      </c>
+      <c r="G90" s="41">
+        <v>-1.8408999999999999E-5</v>
+      </c>
+      <c r="H90" s="41">
+        <v>-4.2836000000000001E-5</v>
+      </c>
+      <c r="I90" s="41">
+        <v>-4.4790999999999999E-5</v>
+      </c>
+      <c r="J90" s="41">
+        <v>4.6078000000000002E-5</v>
+      </c>
+      <c r="K90" s="41">
+        <v>1.3834E-5</v>
+      </c>
+      <c r="L90" s="41">
+        <v>2.6537E-5</v>
+      </c>
+      <c r="M90" s="41">
+        <v>-4.7302E-6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="58">
+        <v>15</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="41">
+        <v>6.7205999999999997E-6</v>
+      </c>
+      <c r="E91" s="41">
+        <v>-1.9644000000000002E-6</v>
+      </c>
+      <c r="F91" s="41">
+        <v>-1.9644000000000002E-6</v>
+      </c>
+      <c r="G91" s="41">
+        <v>1.0581000000000001E-5</v>
+      </c>
+      <c r="H91" s="41">
+        <v>-5.7933999999999998E-5</v>
+      </c>
+      <c r="I91" s="41">
+        <v>-4.9249000000000002E-5</v>
+      </c>
+      <c r="J91" s="41">
+        <v>2.2160000000000001E-5</v>
+      </c>
+      <c r="K91" s="41">
+        <v>2.1195E-5</v>
+      </c>
+      <c r="L91" s="41">
+        <v>1.4440999999999999E-5</v>
+      </c>
+      <c r="M91" s="41">
+        <v>8.6505999999999998E-6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2017,7 +4403,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2038,9 +4424,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
